--- a/Appendices(FInal)/2.4 Tests/Tests.xlsx
+++ b/Appendices(FInal)/2.4 Tests/Tests.xlsx
@@ -336,7 +336,7 @@
     <t>Verify teacher can modify existing content.</t>
   </si>
   <si>
-    <t>Course exists (and has the teacher as admin).</t>
+    <t>Course exists (and has the teacher as owner).</t>
   </si>
   <si>
     <t>1. Teacher enters the course edit mode.
@@ -347,7 +347,7 @@
     <t>System updates content and confirms save.</t>
   </si>
   <si>
-    <t>The teacher as admin is able to enter the course edit mode, modify learning steps, and successfully save the changes, which are reflected in the course content as expected.</t>
+    <t>The teacher as owner is able to enter the course edit mode, modify learning steps, and successfully save the changes, which are reflected in the course content as expected.</t>
   </si>
   <si>
     <t>TC_UC_10a</t>
@@ -569,7 +569,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,7 +1120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="73.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="58.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="68.25" customFormat="1" s="1">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="52.5" customFormat="1" s="1">
       <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="58.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="68.25" customFormat="1" s="1">
       <c r="A14" s="3" t="s">
         <v>86</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="71.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="57" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="66" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A17" s="3" t="s">
         <v>107</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="44.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="68.25" customFormat="1" s="1">
       <c r="A18" s="3" t="s">
         <v>113</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="57" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="84" customFormat="1" s="1">
       <c r="A19" s="3" t="s">
         <v>120</v>
       </c>
